--- a/Social charging model/SCM_export_results_behaviours.xlsx
+++ b/Social charging model/SCM_export_results_behaviours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naudl\Documents\GitHub\social-charging-model\Social charging model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BC24DC-11B7-491A-8EC7-2266FD3C1223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0856BA0E-9EF4-4D6C-8923-41766DDEAF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3758AFA0-8E81-488E-A41A-47B84DA45D8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{3758AFA0-8E81-488E-A41A-47B84DA45D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="per_timestep" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>scenario</t>
   </si>
@@ -72,6 +72,48 @@
     <t>u_sr_b3</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>m_ap_b1</t>
+  </si>
+  <si>
+    <t>l_ap_b1</t>
+  </si>
+  <si>
+    <t>u_ap_b1</t>
+  </si>
+  <si>
+    <t>m_ap_b2</t>
+  </si>
+  <si>
+    <t>l_ap_b2</t>
+  </si>
+  <si>
+    <t>u_ap_b2</t>
+  </si>
+  <si>
+    <t>m_ap_b3</t>
+  </si>
+  <si>
+    <t>l_ap_b3</t>
+  </si>
+  <si>
+    <t>u_ap_b3</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>m_oomc</t>
+  </si>
+  <si>
+    <t>l_oomc</t>
+  </si>
+  <si>
+    <t>u_oomc</t>
+  </si>
+  <si>
     <t>m_lwc</t>
   </si>
   <si>
@@ -81,18 +123,6 @@
     <t>u_lwc</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>l_oomc</t>
-  </si>
-  <si>
-    <t>m_oomc</t>
-  </si>
-  <si>
-    <t>u_oomc</t>
-  </si>
-  <si>
     <t>m_luc</t>
   </si>
   <si>
@@ -102,33 +132,6 @@
     <t>u_luc</t>
   </si>
   <si>
-    <t>m_ap_b1</t>
-  </si>
-  <si>
-    <t>l_ap_b1</t>
-  </si>
-  <si>
-    <t>u_ap_b1</t>
-  </si>
-  <si>
-    <t>m_ap_b2</t>
-  </si>
-  <si>
-    <t>l_ap_b2</t>
-  </si>
-  <si>
-    <t>u_ap_b2</t>
-  </si>
-  <si>
-    <t>m_ap_b3</t>
-  </si>
-  <si>
-    <t>l_ap_b3</t>
-  </si>
-  <si>
-    <t>u_ap_b3</t>
-  </si>
-  <si>
     <t>m_cs</t>
   </si>
   <si>
@@ -156,6 +159,105 @@
     <t>u_rcspd</t>
   </si>
   <si>
+    <t>m_ib1</t>
+  </si>
+  <si>
+    <t>l_ib1</t>
+  </si>
+  <si>
+    <t>u_ib1</t>
+  </si>
+  <si>
+    <t>m_ib2</t>
+  </si>
+  <si>
+    <t>l_ib2</t>
+  </si>
+  <si>
+    <t>u_ib2</t>
+  </si>
+  <si>
+    <t>m_ib3</t>
+  </si>
+  <si>
+    <t>l_ib3</t>
+  </si>
+  <si>
+    <t>u_ib3</t>
+  </si>
+  <si>
+    <t>m_sib1</t>
+  </si>
+  <si>
+    <t>l_sib1</t>
+  </si>
+  <si>
+    <t>u_sib1</t>
+  </si>
+  <si>
+    <t>m_sib2</t>
+  </si>
+  <si>
+    <t>l_sib2</t>
+  </si>
+  <si>
+    <t>u_sib2</t>
+  </si>
+  <si>
+    <t>m_sib3</t>
+  </si>
+  <si>
+    <t>l_sib3</t>
+  </si>
+  <si>
+    <t>u_sib3</t>
+  </si>
+  <si>
+    <t>m_usib1</t>
+  </si>
+  <si>
+    <t>l_usib1</t>
+  </si>
+  <si>
+    <t>u_usib1</t>
+  </si>
+  <si>
+    <t>m_usib2</t>
+  </si>
+  <si>
+    <t>l_usib2</t>
+  </si>
+  <si>
+    <t>u_usib2</t>
+  </si>
+  <si>
+    <t>m_usib3</t>
+  </si>
+  <si>
+    <t>l_usib3</t>
+  </si>
+  <si>
+    <t>u_usib3</t>
+  </si>
+  <si>
+    <t>m_kmd</t>
+  </si>
+  <si>
+    <t>l_kmd</t>
+  </si>
+  <si>
+    <t>u_kmd</t>
+  </si>
+  <si>
+    <t>m_trips</t>
+  </si>
+  <si>
+    <t>l_trips</t>
+  </si>
+  <si>
+    <t>u_trips</t>
+  </si>
+  <si>
     <t>b1</t>
   </si>
   <si>
@@ -169,16 +271,25 @@
   </si>
   <si>
     <t>EVsPerCP</t>
+  </si>
+  <si>
+    <t>charge_points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,7 +654,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -586,31 +697,31 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -621,95 +732,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C276F534-E875-46ED-80D0-6FDBCE465A6B}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S5146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:BF5201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
       </c>
       <c r="V1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Social charging model/SCM_export_results_behaviours.xlsx
+++ b/Social charging model/SCM_export_results_behaviours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naudl\Documents\GitHub\social-charging-model\Social charging model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7188738C-6CCD-4809-862E-032459191BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F523ACAC-DAB8-4330-B14C-8F04A416200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3758AFA0-8E81-488E-A41A-47B84DA45D8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{3758AFA0-8E81-488E-A41A-47B84DA45D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="per_timestep" sheetId="1" r:id="rId1"/>
@@ -333,10 +333,10 @@
     <t>m_n1</t>
   </si>
   <si>
+    <t>u_n1</t>
+  </si>
+  <si>
     <t>l_n1</t>
-  </si>
-  <si>
-    <t>u_n1</t>
   </si>
   <si>
     <t>m_n2</t>
@@ -815,11 +815,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C276F534-E875-46ED-80D0-6FDBCE465A6B}">
   <dimension ref="A1:CH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CH8425" sqref="A2:CH8425"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:CH6241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,10 +1042,10 @@
         <v>97</v>
       </c>
       <c r="BU1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BV1" t="s">
         <v>98</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>99</v>
       </c>
       <c r="BW1" t="s">
         <v>100</v>

--- a/Social charging model/SCM_export_results_behaviours.xlsx
+++ b/Social charging model/SCM_export_results_behaviours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naudl\Documents\GitHub\social-charging-model\Social charging model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4050C924-E5FB-4E2A-A0DD-65220E7C2CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B9DF7-F216-4A0A-B8DA-CE39AE26134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3758AFA0-8E81-488E-A41A-47B84DA45D8A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3758AFA0-8E81-488E-A41A-47B84DA45D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="per_week" sheetId="2" r:id="rId1"/>
@@ -778,11 +778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C276F534-E875-46ED-80D0-6FDBCE465A6B}">
   <dimension ref="A1:DQ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CR7468" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="CD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:DQ7489"/>
+      <selection pane="bottomRight" activeCell="CP2" sqref="CP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
